--- a/frontend/modules/reports/modules/finance/templates/OR.xlsx
+++ b/frontend/modules/reports/modules/finance/templates/OR.xlsx
@@ -5,21 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\eulims2\frontend\modules\reports\modules\finance\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\eulims\frontend\modules\reports\modules\finance\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5496"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,7 +47,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
@@ -69,7 +65,20 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,71 +360,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:D33"/>
+  <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="6.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="A26:D27"/>
+  <mergeCells count="3">
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.35" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/frontend/modules/reports/modules/finance/templates/OR.xlsx
+++ b/frontend/modules/reports/modules/finance/templates/OR.xlsx
@@ -47,7 +47,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
@@ -67,10 +67,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -78,7 +82,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,7 +367,7 @@
   <dimension ref="A3:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D30"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,15 +387,24 @@
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="7"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="7"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="10"/>
+    </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4"/>
     </row>
@@ -405,16 +418,16 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="6.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -424,22 +437,22 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -447,10 +460,11 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A20:D21"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.35" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
